--- a/NewMexico/WaterAllocation/RawInputData/nmose_WATERS_PODs_data_dictionary_v8.xlsx
+++ b/NewMexico/WaterAllocation/RawInputData/nmose_WATERS_PODs_data_dictionary_v8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NewMexico\WaterAllocation\RawInputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A16DF7-A906-4306-8116-4A62C8CAEA59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4694E00-EE27-46FB-B613-7BC566A7D210}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Link Sheet" sheetId="4" r:id="rId1"/>
@@ -8192,6 +8192,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -8208,20 +8223,38 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8232,41 +8265,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8701,8 +8701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8723,34 +8723,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
     </row>
     <row r="2" spans="1:11" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="124" t="s">
         <v>2247</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:11" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -11307,13 +11307,13 @@
       <c r="K104" s="23"/>
     </row>
     <row r="105" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="138" t="s">
+      <c r="A105" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="B105" s="139" t="s">
+      <c r="B105" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="C105" s="140">
+      <c r="C105" s="121">
         <v>1</v>
       </c>
       <c r="D105" s="32" t="s">
@@ -11328,10 +11328,10 @@
       <c r="G105" s="97"/>
       <c r="H105" s="32"/>
       <c r="I105" s="32"/>
-      <c r="J105" s="139" t="s">
+      <c r="J105" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="K105" s="141"/>
+      <c r="K105" s="122"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:K105">
@@ -11389,8 +11389,8 @@
   </sheetPr>
   <dimension ref="A1:D2200"/>
   <sheetViews>
-    <sheetView topLeftCell="A2127" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B2147" sqref="B2146:B2147"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11403,16 +11403,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="130" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="123"/>
+      <c r="B1" s="130"/>
     </row>
     <row r="2" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="131" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="127"/>
+      <c r="B2" s="132"/>
     </row>
     <row r="3" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
@@ -11771,16 +11771,16 @@
       <c r="B47" s="47"/>
     </row>
     <row r="48" spans="1:2" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="123" t="s">
+      <c r="A48" s="130" t="s">
         <v>2201</v>
       </c>
-      <c r="B48" s="123"/>
+      <c r="B48" s="130"/>
     </row>
     <row r="49" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="126" t="s">
+      <c r="A49" s="131" t="s">
         <v>2203</v>
       </c>
-      <c r="B49" s="127"/>
+      <c r="B49" s="132"/>
     </row>
     <row r="50" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="36" t="s">
@@ -11819,16 +11819,16 @@
       <c r="B54" s="47"/>
     </row>
     <row r="55" spans="1:2" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="128" t="s">
+      <c r="A55" s="138" t="s">
         <v>2195</v>
       </c>
-      <c r="B55" s="128"/>
+      <c r="B55" s="138"/>
     </row>
     <row r="56" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="129" t="s">
+      <c r="A56" s="139" t="s">
         <v>2204</v>
       </c>
-      <c r="B56" s="130"/>
+      <c r="B56" s="140"/>
     </row>
     <row r="57" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="115" t="s">
@@ -11932,17 +11932,17 @@
       <c r="D69" s="49"/>
     </row>
     <row r="70" spans="1:4" s="48" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="123" t="s">
+      <c r="A70" s="130" t="s">
         <v>311</v>
       </c>
-      <c r="B70" s="123"/>
+      <c r="B70" s="130"/>
       <c r="D70" s="49"/>
     </row>
     <row r="71" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="134" t="s">
+      <c r="A71" s="133" t="s">
         <v>312</v>
       </c>
-      <c r="B71" s="135"/>
+      <c r="B71" s="134"/>
     </row>
     <row r="72" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="50" t="s">
@@ -12234,16 +12234,16 @@
       <c r="B107" s="58"/>
     </row>
     <row r="108" spans="1:2" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="123" t="s">
+      <c r="A108" s="130" t="s">
         <v>2180</v>
       </c>
-      <c r="B108" s="123"/>
+      <c r="B108" s="130"/>
     </row>
     <row r="109" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="126" t="s">
+      <c r="A109" s="131" t="s">
         <v>2181</v>
       </c>
-      <c r="B109" s="127"/>
+      <c r="B109" s="132"/>
     </row>
     <row r="110" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="36" t="s">
@@ -12526,16 +12526,16 @@
       <c r="B141" s="58"/>
     </row>
     <row r="142" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="123" t="s">
+      <c r="A142" s="130" t="s">
         <v>2189</v>
       </c>
-      <c r="B142" s="123"/>
+      <c r="B142" s="130"/>
     </row>
     <row r="143" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="124" t="s">
+      <c r="A143" s="137" t="s">
         <v>2190</v>
       </c>
-      <c r="B143" s="125"/>
+      <c r="B143" s="136"/>
     </row>
     <row r="144" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="59" t="s">
@@ -12566,16 +12566,16 @@
       <c r="B147" s="58"/>
     </row>
     <row r="148" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="123" t="s">
+      <c r="A148" s="130" t="s">
         <v>376</v>
       </c>
-      <c r="B148" s="123"/>
+      <c r="B148" s="130"/>
     </row>
     <row r="149" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="136" t="s">
+      <c r="A149" s="135" t="s">
         <v>377</v>
       </c>
-      <c r="B149" s="125"/>
+      <c r="B149" s="136"/>
     </row>
     <row r="150" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="59" t="s">
@@ -12622,16 +12622,16 @@
       <c r="B155" s="58"/>
     </row>
     <row r="156" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="123" t="s">
+      <c r="A156" s="130" t="s">
         <v>2308</v>
       </c>
-      <c r="B156" s="123"/>
+      <c r="B156" s="130"/>
     </row>
     <row r="157" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="124" t="s">
+      <c r="A157" s="137" t="s">
         <v>2309</v>
       </c>
-      <c r="B157" s="125"/>
+      <c r="B157" s="136"/>
     </row>
     <row r="158" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="50" t="s">
@@ -12686,16 +12686,16 @@
       <c r="B164" s="58"/>
     </row>
     <row r="165" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="123" t="s">
+      <c r="A165" s="130" t="s">
         <v>2183</v>
       </c>
-      <c r="B165" s="123"/>
+      <c r="B165" s="130"/>
     </row>
     <row r="166" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="136" t="s">
+      <c r="A166" s="135" t="s">
         <v>2184</v>
       </c>
-      <c r="B166" s="125"/>
+      <c r="B166" s="136"/>
     </row>
     <row r="167" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="59" t="s">
@@ -12734,16 +12734,16 @@
       <c r="B171" s="58"/>
     </row>
     <row r="172" spans="1:2" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="123" t="s">
+      <c r="A172" s="130" t="s">
         <v>566</v>
       </c>
-      <c r="B172" s="123"/>
+      <c r="B172" s="130"/>
     </row>
     <row r="173" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="136" t="s">
+      <c r="A173" s="135" t="s">
         <v>567</v>
       </c>
-      <c r="B173" s="125"/>
+      <c r="B173" s="136"/>
     </row>
     <row r="174" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="59" t="s">
@@ -12798,16 +12798,16 @@
       <c r="B180" s="58"/>
     </row>
     <row r="181" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="123" t="s">
+      <c r="A181" s="130" t="s">
         <v>578</v>
       </c>
-      <c r="B181" s="123"/>
+      <c r="B181" s="130"/>
     </row>
     <row r="182" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="124" t="s">
+      <c r="A182" s="137" t="s">
         <v>579</v>
       </c>
-      <c r="B182" s="125"/>
+      <c r="B182" s="136"/>
     </row>
     <row r="183" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="59" t="s">
@@ -12854,16 +12854,16 @@
       <c r="B188" s="58"/>
     </row>
     <row r="189" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="123" t="s">
+      <c r="A189" s="130" t="s">
         <v>588</v>
       </c>
-      <c r="B189" s="123"/>
+      <c r="B189" s="130"/>
     </row>
     <row r="190" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="124" t="s">
+      <c r="A190" s="137" t="s">
         <v>589</v>
       </c>
-      <c r="B190" s="125"/>
+      <c r="B190" s="136"/>
     </row>
     <row r="191" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="59" t="s">
@@ -12910,16 +12910,16 @@
       <c r="B196" s="58"/>
     </row>
     <row r="197" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="123" t="s">
+      <c r="A197" s="130" t="s">
         <v>383</v>
       </c>
-      <c r="B197" s="123"/>
+      <c r="B197" s="130"/>
     </row>
     <row r="198" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="131" t="s">
+      <c r="A198" s="127" t="s">
         <v>384</v>
       </c>
-      <c r="B198" s="132"/>
+      <c r="B198" s="141"/>
     </row>
     <row r="199" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="50" t="s">
@@ -13350,16 +13350,16 @@
       <c r="B252" s="58"/>
     </row>
     <row r="253" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="123" t="s">
+      <c r="A253" s="130" t="s">
         <v>2254</v>
       </c>
-      <c r="B253" s="123"/>
+      <c r="B253" s="130"/>
     </row>
     <row r="254" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="124" t="s">
+      <c r="A254" s="137" t="s">
         <v>2255</v>
       </c>
-      <c r="B254" s="125"/>
+      <c r="B254" s="136"/>
     </row>
     <row r="255" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="50" t="s">
@@ -13566,16 +13566,16 @@
       <c r="B280" s="58"/>
     </row>
     <row r="281" spans="1:2" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="137" t="s">
+      <c r="A281" s="129" t="s">
         <v>2182</v>
       </c>
-      <c r="B281" s="137"/>
+      <c r="B281" s="129"/>
     </row>
     <row r="282" spans="1:2" s="2" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="131" t="s">
+      <c r="A282" s="127" t="s">
         <v>2463</v>
       </c>
-      <c r="B282" s="133"/>
+      <c r="B282" s="128"/>
     </row>
     <row r="283" spans="1:2" s="2" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="50" t="s">
@@ -14334,16 +14334,16 @@
       <c r="B377" s="58"/>
     </row>
     <row r="378" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="137" t="s">
+      <c r="A378" s="129" t="s">
         <v>594</v>
       </c>
-      <c r="B378" s="137"/>
+      <c r="B378" s="129"/>
     </row>
     <row r="379" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="131" t="s">
+      <c r="A379" s="127" t="s">
         <v>595</v>
       </c>
-      <c r="B379" s="133"/>
+      <c r="B379" s="128"/>
     </row>
     <row r="380" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="50" t="s">
@@ -28222,16 +28222,16 @@
       <c r="B2114" s="58"/>
     </row>
     <row r="2115" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2115" s="137" t="s">
+      <c r="A2115" s="129" t="s">
         <v>480</v>
       </c>
-      <c r="B2115" s="137"/>
+      <c r="B2115" s="129"/>
     </row>
     <row r="2116" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2116" s="131" t="s">
+      <c r="A2116" s="127" t="s">
         <v>481</v>
       </c>
-      <c r="B2116" s="133"/>
+      <c r="B2116" s="128"/>
     </row>
     <row r="2117" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2117" s="50" t="s">
@@ -28793,11 +28793,19 @@
     <sortCondition ref="A246:A269"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="A379:B379"/>
-    <mergeCell ref="A378:B378"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A2115:B2115"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
     <mergeCell ref="A2116:B2116"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -28814,19 +28822,11 @@
     <mergeCell ref="A165:B165"/>
     <mergeCell ref="A166:B166"/>
     <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A379:B379"/>
+    <mergeCell ref="A378:B378"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A2115:B2115"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.5" top="1.25" bottom="1" header="0.5" footer="0.5"/>
